--- a/medicine/Médecine vétérinaire/Jean-Baptiste_Desplas/Jean-Baptiste_Desplas.xlsx
+++ b/medicine/Médecine vétérinaire/Jean-Baptiste_Desplas/Jean-Baptiste_Desplas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Desplas, né à Paris le 30 juillet 1758 et mort le 9 mars 1823 dans cette même ville, est un vétérinaire français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il accompagna Philibert Chabert dans l'inspection qu'il fut chargé de faire pour s'opposer aux progrès de l'épizootie charbonneuse qui ravageait le Quercy en 1786.
 Il était membre de la Société royale et centrale d’agriculture et de la Société royale de médecine ; il était membre du jury d'examen de l'École d'Alfort.
@@ -545,7 +559,9 @@
           <t>Ses œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Instruction sur les maladies inflammatoires épizootiques: et particulièrement sur celle qui affecte les bêtes à cornes des départemens de l'Est, d'une partie de l'Allemagne, et des parcs d'approvisionnemens des armées de Sambre-et-Meuse et de Rhin-et-Moselle, avec Jean-Baptiste Huzard, imprimerie de la République, 1794, puis 1797, 24 p.</t>
         </is>
